--- a/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP009.xlsx
+++ b/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP009.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -19,9 +19,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>金種表</t>
+  </si>
+  <si>
+    <t>&amp;=Header.departmentInfo(bean)</t>
+  </si>
+  <si>
+    <t>&amp;=Header.positionInfo(bean)</t>
+  </si>
+  <si>
+    <t>&amp;=Header.targetYearMonth(bean)</t>
+  </si>
+  <si>
+    <t>&amp;=Header.categoryInfo(bean)</t>
   </si>
 </sst>
 </file>
@@ -370,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="A6" sqref="A6:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -403,6 +415,26 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
+    <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A3:L3"/>
